--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B58BAA-B163-402B-A63A-A7C3669DAC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7627938-8B36-44F4-B711-798B9F563FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C176050-A4DA-4EB3-B02D-CE58787D75F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33E96004-A1B0-41F3-84C9-D1284089C553}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48059A20-84D5-40CC-B7B0-CDFD163ADC5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696854B-2736-41F6-938A-6DCA18A302B2}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7615C92B-08D4-42EE-863B-F5FCE870B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F64C1-EA38-44FC-84C8-E550569E7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{25C9D506-D427-4012-81E6-49AC4BE62832}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{25C9D506-D427-4012-81E6-49AC4BE62832}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>法學院</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>600 法學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>600 法學院</t>
   </si>
   <si>
     <t>601 法律學系</t>
@@ -455,22 +452,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -478,14 +472,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -493,7 +487,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59BC-4E59-A5B5-E3AE0B4E61D8}"/>
+              <c16:uniqueId val="{00000000-1B79-438F-96F8-F58A0544727E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,22 +522,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -551,14 +542,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -566,7 +557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59BC-4E59-A5B5-E3AE0B4E61D8}"/>
+              <c16:uniqueId val="{00000001-1B79-438F-96F8-F58A0544727E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,22 +592,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -624,14 +612,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -639,7 +627,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-59BC-4E59-A5B5-E3AE0B4E61D8}"/>
+              <c16:uniqueId val="{00000002-1B79-438F-96F8-F58A0544727E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,7 +738,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-59BC-4E59-A5B5-E3AE0B4E61D8}"/>
+                  <c16:uniqueId val="{00000003-1B79-438F-96F8-F58A0544727E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -822,22 +810,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -845,14 +830,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$6</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -861,7 +846,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-59BC-4E59-A5B5-E3AE0B4E61D8}"/>
+              <c16:uniqueId val="{00000004-1B79-438F-96F8-F58A0544727E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1142,22 +1127,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1165,14 +1147,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1180,7 +1162,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F716-4E56-957F-483140B04269}"/>
+              <c16:uniqueId val="{00000000-7F69-45D2-8E3B-16B025134F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1215,22 +1197,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1238,14 +1217,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1253,7 +1232,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F716-4E56-957F-483140B04269}"/>
+              <c16:uniqueId val="{00000001-7F69-45D2-8E3B-16B025134F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1288,22 +1267,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1311,14 +1287,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1326,7 +1302,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F716-4E56-957F-483140B04269}"/>
+              <c16:uniqueId val="{00000002-7F69-45D2-8E3B-16B025134F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1437,7 +1413,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F716-4E56-957F-483140B04269}"/>
+                  <c16:uniqueId val="{00000003-7F69-45D2-8E3B-16B025134F5A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1509,22 +1485,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1532,14 +1505,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$6</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1548,7 +1521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F716-4E56-957F-483140B04269}"/>
+              <c16:uniqueId val="{00000004-7F69-45D2-8E3B-16B025134F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1829,22 +1802,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1852,14 +1822,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1867,7 +1837,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F96B-45FB-BDE0-6BFC00DD8F45}"/>
+              <c16:uniqueId val="{00000000-43BA-4778-A584-2180A2445ED2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1902,22 +1872,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1925,14 +1892,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1940,7 +1907,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F96B-45FB-BDE0-6BFC00DD8F45}"/>
+              <c16:uniqueId val="{00000001-43BA-4778-A584-2180A2445ED2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1975,22 +1942,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1998,14 +1962,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2013,7 +1977,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F96B-45FB-BDE0-6BFC00DD8F45}"/>
+              <c16:uniqueId val="{00000002-43BA-4778-A584-2180A2445ED2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2124,7 +2088,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F96B-45FB-BDE0-6BFC00DD8F45}"/>
+                  <c16:uniqueId val="{00000003-43BA-4778-A584-2180A2445ED2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2196,22 +2160,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2219,14 +2180,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$6</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2235,7 +2196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F96B-45FB-BDE0-6BFC00DD8F45}"/>
+              <c16:uniqueId val="{00000004-43BA-4778-A584-2180A2445ED2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2516,22 +2477,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2539,14 +2497,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2554,7 +2512,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDA2-4C23-B513-C640C8671AAC}"/>
+              <c16:uniqueId val="{00000000-1EAD-46D2-B721-8D4FB39063ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2589,22 +2547,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2612,14 +2567,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2627,7 +2582,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CDA2-4C23-B513-C640C8671AAC}"/>
+              <c16:uniqueId val="{00000001-1EAD-46D2-B721-8D4FB39063ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2662,22 +2617,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2685,14 +2637,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2700,7 +2652,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CDA2-4C23-B513-C640C8671AAC}"/>
+              <c16:uniqueId val="{00000002-1EAD-46D2-B721-8D4FB39063ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2811,7 +2763,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CDA2-4C23-B513-C640C8671AAC}"/>
+                  <c16:uniqueId val="{00000003-1EAD-46D2-B721-8D4FB39063ED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2883,22 +2835,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2906,14 +2855,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$6</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2922,7 +2871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CDA2-4C23-B513-C640C8671AAC}"/>
+              <c16:uniqueId val="{00000004-1EAD-46D2-B721-8D4FB39063ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3203,22 +3152,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3226,14 +3172,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3241,7 +3187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A6B-4CA4-A74B-9A4DAA7EF910}"/>
+              <c16:uniqueId val="{00000000-28B8-40ED-AEBE-B9460DF70F6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3276,22 +3222,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3299,14 +3242,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3314,7 +3257,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A6B-4CA4-A74B-9A4DAA7EF910}"/>
+              <c16:uniqueId val="{00000001-28B8-40ED-AEBE-B9460DF70F6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3349,22 +3292,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3372,14 +3312,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3387,7 +3327,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A6B-4CA4-A74B-9A4DAA7EF910}"/>
+              <c16:uniqueId val="{00000002-28B8-40ED-AEBE-B9460DF70F6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3498,7 +3438,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9A6B-4CA4-A74B-9A4DAA7EF910}"/>
+                  <c16:uniqueId val="{00000003-28B8-40ED-AEBE-B9460DF70F6A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3570,22 +3510,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3593,14 +3530,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$6</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3609,7 +3546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9A6B-4CA4-A74B-9A4DAA7EF910}"/>
+              <c16:uniqueId val="{00000004-28B8-40ED-AEBE-B9460DF70F6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3890,22 +3827,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3913,14 +3847,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3928,7 +3862,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-208B-4156-BA1C-8115A865A53B}"/>
+              <c16:uniqueId val="{00000000-669E-427A-9152-691538C12829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3963,22 +3897,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3986,14 +3917,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4001,7 +3932,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-208B-4156-BA1C-8115A865A53B}"/>
+              <c16:uniqueId val="{00000001-669E-427A-9152-691538C12829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4036,22 +3967,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4059,14 +3987,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4074,7 +4002,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-208B-4156-BA1C-8115A865A53B}"/>
+              <c16:uniqueId val="{00000002-669E-427A-9152-691538C12829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4185,7 +4113,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-208B-4156-BA1C-8115A865A53B}"/>
+                  <c16:uniqueId val="{00000003-669E-427A-9152-691538C12829}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4257,22 +4185,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4280,14 +4205,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$6</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4296,7 +4221,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-208B-4156-BA1C-8115A865A53B}"/>
+              <c16:uniqueId val="{00000004-669E-427A-9152-691538C12829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4577,22 +4502,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4600,14 +4522,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4615,7 +4537,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4688-46A5-BD99-6DA4A2E834E3}"/>
+              <c16:uniqueId val="{00000000-19C2-4D20-8F80-6FF788958975}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4650,22 +4572,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4673,14 +4592,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4688,7 +4607,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4688-46A5-BD99-6DA4A2E834E3}"/>
+              <c16:uniqueId val="{00000001-19C2-4D20-8F80-6FF788958975}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4723,22 +4642,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4746,14 +4662,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4761,7 +4677,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4688-46A5-BD99-6DA4A2E834E3}"/>
+              <c16:uniqueId val="{00000002-19C2-4D20-8F80-6FF788958975}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4872,7 +4788,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4688-46A5-BD99-6DA4A2E834E3}"/>
+                  <c16:uniqueId val="{00000003-19C2-4D20-8F80-6FF788958975}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4944,22 +4860,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>法學院</c:v>
+                  <c:v>法律系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>法律系</c:v>
+                  <c:v>法科所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4967,14 +4880,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$6</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4983,7 +4896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4688-46A5-BD99-6DA4A2E834E3}"/>
+              <c16:uniqueId val="{00000004-19C2-4D20-8F80-6FF788958975}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5212,7 +5125,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F756DC-D4F4-4337-82D2-09FDB6AA6068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1288E0-E5A7-4440-8722-475984310E21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5245,7 +5158,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C54D05-D770-4F94-807F-D769B58B348B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459AC96C-4481-4269-ABB7-1E4CC746E355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5191,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0065F69E-9174-42A5-A821-2100DF9083BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74DE2D0-FC1D-4944-A556-60E23D5EBCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5224,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2983B9B4-C4C2-4206-9D29-7E95911EE739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B918F52-048D-4BF9-947E-4A94A3C7E684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5257,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E53AF6-A894-4FA8-AD39-F200BC75873B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696A7D1A-2C94-4C87-B193-ED22BCEF4BFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5377,7 +5290,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4601F2-5439-42D5-AF58-FA25688A1E54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2028B3-D30D-44EC-B3E7-999E5E1EE395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5323,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCA8B3E-2461-45FD-A841-EEEE5D9132FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A4F2D7-F532-4430-BF75-EC3EF61F321D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5460,7 +5373,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5477,7 +5390,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -5860,25 +5773,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{2FCF2599-DA08-4A01-9D7A-6D343D7077F6}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{94C3DD73-4A2C-4529-B79D-07D6487B4AB5}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{FE7D7E67-13E7-469A-BB90-AAA4F477C346}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{4ABAEF79-830B-457D-8277-82D9BCB7E02A}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{0869D93D-1EFE-4565-BF75-024B7745AA7C}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{55B086F4-8679-42F8-AFBC-3F0E54ADCBD4}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{64AE7895-9932-4404-B427-ACB804A9FA93}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{72006D4F-5CFE-486E-B43A-DCDDAF34D769}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{4728D333-E0E6-4CEF-A58C-744EA86C0617}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{9F53D5BF-9264-4439-B9CB-A1931E157BD8}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{B7755402-0655-4BBF-A7C8-BA81757C1EA0}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{B146E6CF-B6A2-4150-9272-817D2245B1FA}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{11D11526-D8EB-4278-BE92-D3D62727F5AA}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{789A862E-68F9-4C31-AF87-3D96E9BEEFCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C8074-4882-41A7-B31C-37C3C0DB0488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F6C97D-FA05-4CBB-933A-16D4CAA25DA6}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5933,16 +5846,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5955,7 +5866,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5968,39 +5879,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="C5" s="10">
         <v>0.05</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D5" s="10">
         <v>0.04</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E5" s="10">
         <v>0.01</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F5" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6011,12 +5911,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D998A-D919-4921-8006-587255B7B412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1693960E-2A23-472C-B21A-2C1B0EB72B8A}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6071,16 +5971,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6093,7 +5991,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6106,39 +6004,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="C5" s="10">
         <v>0.05</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D5" s="10">
         <v>0.04</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E5" s="10">
         <v>0.01</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F5" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6149,12 +6036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7114770-8B06-4A51-AFBD-75151662A04F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C2FECC-BC36-443F-99D3-4EF8F4793CCF}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6209,16 +6096,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6231,7 +6116,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6244,39 +6129,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="C5" s="11">
         <v>0.05</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D5" s="11">
         <v>0.04</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E5" s="11">
         <v>0.01</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F5" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6287,12 +6161,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8F463-8634-4EAC-9022-EB73B041E315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F51CE8-E15B-4802-A1FD-2A2715482E74}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6347,16 +6221,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6369,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6382,39 +6254,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C5" s="12">
         <v>0.05</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D5" s="12">
         <v>0.04</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E5" s="12">
         <v>0.01</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F5" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6425,12 +6286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A8B2C-2691-4F6A-96DA-D0A9CB15C32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A2BF8-7027-4F63-B74E-F28E82B410BB}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6485,16 +6346,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6507,7 +6366,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6520,39 +6379,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C5" s="12">
         <v>0.05</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D5" s="12">
         <v>0.04</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E5" s="12">
         <v>0.01</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F5" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6563,12 +6411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B806A6D-E63E-41E7-9CCE-48CF25222727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EAEAF-70FF-42B5-90DD-2AE225F7A4C2}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6609,7 +6457,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6623,16 +6471,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6645,7 +6491,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6658,39 +6504,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C5" s="12">
         <v>0.05</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D5" s="12">
         <v>0.04</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E5" s="12">
         <v>0.01</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F5" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6701,12 +6536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A73B9-8E3E-4A0B-80F3-941A48AC91F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A38B20-9052-4B23-991A-7EC79A4C59C8}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6747,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6761,16 +6596,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6783,7 +6616,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6796,39 +6629,28 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C5" s="12">
         <v>0.05</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D5" s="12">
         <v>0.04</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E5" s="12">
         <v>0.01</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F5" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+      <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F64C1-EA38-44FC-84C8-E550569E7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0421D6-7D30-450A-8EBA-616A8067F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{25C9D506-D427-4012-81E6-49AC4BE62832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{25C9D506-D427-4012-81E6-49AC4BE62832}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$5</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
-  <si>
-    <t>法學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
   <si>
     <t>法律系</t>
   </si>
@@ -65,27 +59,6 @@
   </si>
   <si>
     <t>法碩在</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -138,6 +111,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -454,18 +478,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,19 +490,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B79-438F-96F8-F58A0544727E}"/>
+              <c16:uniqueId val="{00000000-ED22-4317-8A02-3EC852A9D566}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -524,18 +536,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -545,19 +548,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B79-438F-96F8-F58A0544727E}"/>
+              <c16:uniqueId val="{00000001-ED22-4317-8A02-3EC852A9D566}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -594,18 +594,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -615,19 +606,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B79-438F-96F8-F58A0544727E}"/>
+              <c16:uniqueId val="{00000002-ED22-4317-8A02-3EC852A9D566}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -691,7 +679,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -738,7 +730,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1B79-438F-96F8-F58A0544727E}"/>
+                  <c16:uniqueId val="{00000003-ED22-4317-8A02-3EC852A9D566}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -747,7 +739,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -812,18 +808,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,12 +820,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +830,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B79-438F-96F8-F58A0544727E}"/>
+              <c16:uniqueId val="{00000004-ED22-4317-8A02-3EC852A9D566}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1129,18 +1113,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1150,19 +1125,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F69-45D2-8E3B-16B025134F5A}"/>
+              <c16:uniqueId val="{00000000-1FDF-4633-9EDD-008A316EB95B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,18 +1171,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1220,19 +1183,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F69-45D2-8E3B-16B025134F5A}"/>
+              <c16:uniqueId val="{00000001-1FDF-4633-9EDD-008A316EB95B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,18 +1229,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,19 +1241,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F69-45D2-8E3B-16B025134F5A}"/>
+              <c16:uniqueId val="{00000002-1FDF-4633-9EDD-008A316EB95B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,7 +1314,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1413,7 +1365,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7F69-45D2-8E3B-16B025134F5A}"/>
+                  <c16:uniqueId val="{00000003-1FDF-4633-9EDD-008A316EB95B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1422,7 +1374,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1487,18 +1443,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1508,12 +1455,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7F69-45D2-8E3B-16B025134F5A}"/>
+              <c16:uniqueId val="{00000004-1FDF-4633-9EDD-008A316EB95B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1804,18 +1748,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1825,19 +1760,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43BA-4778-A584-2180A2445ED2}"/>
+              <c16:uniqueId val="{00000000-F61D-4EFA-9E2C-0183DA78E6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1874,18 +1806,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1895,19 +1818,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43BA-4778-A584-2180A2445ED2}"/>
+              <c16:uniqueId val="{00000001-F61D-4EFA-9E2C-0183DA78E6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1944,18 +1864,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1965,19 +1876,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43BA-4778-A584-2180A2445ED2}"/>
+              <c16:uniqueId val="{00000002-F61D-4EFA-9E2C-0183DA78E6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2041,7 +1949,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2088,7 +2000,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-43BA-4778-A584-2180A2445ED2}"/>
+                  <c16:uniqueId val="{00000003-F61D-4EFA-9E2C-0183DA78E6E5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2097,7 +2009,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2162,18 +2078,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2183,12 +2090,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,7 +2100,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-43BA-4778-A584-2180A2445ED2}"/>
+              <c16:uniqueId val="{00000004-F61D-4EFA-9E2C-0183DA78E6E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2479,18 +2383,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2500,19 +2395,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EAD-46D2-B721-8D4FB39063ED}"/>
+              <c16:uniqueId val="{00000000-55DE-42E7-A7E2-08FB07C9EA94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2549,18 +2441,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2570,19 +2453,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EAD-46D2-B721-8D4FB39063ED}"/>
+              <c16:uniqueId val="{00000001-55DE-42E7-A7E2-08FB07C9EA94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2619,18 +2499,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2640,19 +2511,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1EAD-46D2-B721-8D4FB39063ED}"/>
+              <c16:uniqueId val="{00000002-55DE-42E7-A7E2-08FB07C9EA94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2716,7 +2584,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2763,7 +2635,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1EAD-46D2-B721-8D4FB39063ED}"/>
+                  <c16:uniqueId val="{00000003-55DE-42E7-A7E2-08FB07C9EA94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2772,7 +2644,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2837,18 +2713,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2858,12 +2725,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +2735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1EAD-46D2-B721-8D4FB39063ED}"/>
+              <c16:uniqueId val="{00000004-55DE-42E7-A7E2-08FB07C9EA94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3154,18 +3018,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3175,19 +3030,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28B8-40ED-AEBE-B9460DF70F6A}"/>
+              <c16:uniqueId val="{00000000-867B-4B9A-A5EA-238BFACAC6E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3224,18 +3076,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3245,19 +3088,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28B8-40ED-AEBE-B9460DF70F6A}"/>
+              <c16:uniqueId val="{00000001-867B-4B9A-A5EA-238BFACAC6E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3294,18 +3134,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3315,19 +3146,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-28B8-40ED-AEBE-B9460DF70F6A}"/>
+              <c16:uniqueId val="{00000002-867B-4B9A-A5EA-238BFACAC6E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3391,7 +3219,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3438,7 +3270,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-28B8-40ED-AEBE-B9460DF70F6A}"/>
+                  <c16:uniqueId val="{00000003-867B-4B9A-A5EA-238BFACAC6E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3447,7 +3279,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3512,18 +3348,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3533,12 +3360,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,7 +3370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-28B8-40ED-AEBE-B9460DF70F6A}"/>
+              <c16:uniqueId val="{00000004-867B-4B9A-A5EA-238BFACAC6E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3829,18 +3653,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3850,19 +3665,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-669E-427A-9152-691538C12829}"/>
+              <c16:uniqueId val="{00000000-8CE7-431C-B510-9884C208BF3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3899,18 +3711,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3920,19 +3723,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-669E-427A-9152-691538C12829}"/>
+              <c16:uniqueId val="{00000001-8CE7-431C-B510-9884C208BF3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3969,18 +3769,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3990,19 +3781,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-669E-427A-9152-691538C12829}"/>
+              <c16:uniqueId val="{00000002-8CE7-431C-B510-9884C208BF3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4066,7 +3854,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4113,7 +3905,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-669E-427A-9152-691538C12829}"/>
+                  <c16:uniqueId val="{00000003-8CE7-431C-B510-9884C208BF3F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4122,7 +3914,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4187,18 +3983,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4208,12 +3995,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4221,7 +4005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-669E-427A-9152-691538C12829}"/>
+              <c16:uniqueId val="{00000004-8CE7-431C-B510-9884C208BF3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4504,18 +4288,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4525,19 +4300,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19C2-4D20-8F80-6FF788958975}"/>
+              <c16:uniqueId val="{00000000-CF32-44C2-B77F-3C316F68AAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4574,18 +4346,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4595,19 +4358,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-19C2-4D20-8F80-6FF788958975}"/>
+              <c16:uniqueId val="{00000001-CF32-44C2-B77F-3C316F68AAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4644,18 +4404,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4665,19 +4416,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-19C2-4D20-8F80-6FF788958975}"/>
+              <c16:uniqueId val="{00000002-CF32-44C2-B77F-3C316F68AAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4741,7 +4489,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4788,7 +4540,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-19C2-4D20-8F80-6FF788958975}"/>
+                  <c16:uniqueId val="{00000003-CF32-44C2-B77F-3C316F68AAFA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4797,7 +4549,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4862,18 +4618,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>法律系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>法科所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>法碩在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4883,12 +4630,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,7 +4640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-19C2-4D20-8F80-6FF788958975}"/>
+              <c16:uniqueId val="{00000004-CF32-44C2-B77F-3C316F68AAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5125,7 +4869,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1288E0-E5A7-4440-8722-475984310E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69380254-DA4B-4454-8B9D-6E31D972310E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5158,7 +4902,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459AC96C-4481-4269-ABB7-1E4CC746E355}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE89076-7ECE-4700-85D2-53A7AABA3C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5191,7 +4935,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74DE2D0-FC1D-4944-A556-60E23D5EBCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB301F6-9D86-423D-9872-3F95E3E56D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5224,7 +4968,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B918F52-048D-4BF9-947E-4A94A3C7E684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E1DF60-4E9E-4202-9510-7B6B68274A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5257,7 +5001,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696A7D1A-2C94-4C87-B193-ED22BCEF4BFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847933D4-9D76-41CF-9612-F2A0F1502E58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5290,7 +5034,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2028B3-D30D-44EC-B3E7-999E5E1EE395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83925383-2CCF-4F03-95B6-7E1AA17242BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5067,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A4F2D7-F532-4430-BF75-EC3EF61F321D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FDA6C7-3162-44B0-8041-F15708410184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,72 +5088,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5707,91 +5385,147 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2666AE22-E1D2-4FDD-8F09-4E44054C3B25}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7DB5B-8C9B-45B0-BDB2-843814937522}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{72006D4F-5CFE-486E-B43A-DCDDAF34D769}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{4728D333-E0E6-4CEF-A58C-744EA86C0617}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{9F53D5BF-9264-4439-B9CB-A1931E157BD8}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{B7755402-0655-4BBF-A7C8-BA81757C1EA0}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{B146E6CF-B6A2-4150-9272-817D2245B1FA}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{11D11526-D8EB-4278-BE92-D3D62727F5AA}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{789A862E-68F9-4C31-AF87-3D96E9BEEFCC}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FD67FDB1-2008-4FA8-802F-3FAF678EBA49}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{237C2DC9-6416-4726-83D1-BDD87F919E40}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E753860C-02BB-4231-8BE2-1BFD228FC336}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{FA970C90-91A0-4986-B85E-F4BB3707D5F7}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{145A158E-FB3D-4A2B-BB72-96454A2CAE8E}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{634E34FB-6BD8-4C8B-AA17-164D6E240703}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{16477250-EDCE-43C9-B6A1-6C107F2256BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F6C97D-FA05-4CBB-933A-16D4CAA25DA6}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D112424B-06E8-4047-A49D-CB35CBDE3367}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5804,105 +5538,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5911,12 +5678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1693960E-2A23-472C-B21A-2C1B0EB72B8A}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE7564B-70B3-4226-9B60-D634A97AA471}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5929,105 +5696,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6036,12 +5836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C2FECC-BC36-443F-99D3-4EF8F4793CCF}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA87730-E1C2-4AB1-BE6A-712FED8B7A22}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6054,105 +5854,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6161,12 +5994,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F51CE8-E15B-4802-A1FD-2A2715482E74}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A9ACE-121F-4C9E-993F-7FC46A980D06}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6179,105 +6012,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6286,12 +6152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A2BF8-7027-4F63-B74E-F28E82B410BB}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4314C0E5-57B7-48FC-825B-170C9D527279}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6304,105 +6170,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6411,12 +6310,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EAEAF-70FF-42B5-90DD-2AE225F7A4C2}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C938073-E63F-44A3-8526-1B021232A88C}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6429,105 +6328,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6536,12 +6468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A38B20-9052-4B23-991A-7EC79A4C59C8}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88788C-FEC1-44C5-9D8C-2222B9E06266}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6554,105 +6486,138 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
       <sortCondition descending="1" ref="G1:G5"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0421D6-7D30-450A-8EBA-616A8067F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2F9AF-8434-4E30-A175-D465A35411CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{25C9D506-D427-4012-81E6-49AC4BE62832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{971A42F4-8656-4DC4-A258-5915C536D6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
@@ -50,70 +50,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="43">
   <si>
-    <t>法律系</t>
+    <t>600 法學院（院加總 / 院均值）</t>
   </si>
   <si>
-    <t>法科所</t>
-  </si>
-  <si>
-    <t>法碩在</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>600 法學院（院加總 / 院均值）</t>
+    <t>法學院</t>
   </si>
   <si>
     <t>601 法律學系</t>
   </si>
   <si>
+    <t>法律系</t>
+  </si>
+  <si>
     <t>652 法律科際整合研究所</t>
+  </si>
+  <si>
+    <t>法科所</t>
   </si>
   <si>
     <t>961 法學院碩士在職專班</t>
   </si>
   <si>
     <t>法碩在</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>法學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -158,21 +118,97 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法碩在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為13.69%，低於（或等於）院三年均值者計有1個系，為法律系13.69%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為31.58%，高於（或等於）院三年均值者計有1個系，為法律系31.58%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為34,581，高於（或等於）院三年均值者計有1個系，為法律系34,581。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為4.54，低於院三年均值者計有1個系，為法律系3.91。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為10.8，高於院三年均值者計有1個系，為法律系11.38。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -355,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,15 +426,24 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{33C3293E-E5C2-4874-BF01-E249C02D07A2}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{226B77DC-923E-45B9-9B4C-0D66A8F32DB0}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{880EFC46-3AD3-48F3-B85B-830CDCE1D8EA}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{B464E9E5-4E89-40BB-9662-43685B68574A}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{E4528B5D-0D8D-41C7-B2ED-914AE6852AA8}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{FB510D17-3FDD-4BEB-8632-8503686DA0E3}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,8 +523,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -489,17 +537,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12970000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED22-4317-8A02-3EC852A9D566}"/>
+              <c16:uniqueId val="{00000000-CF33-4DB7-8784-D8843B4C854A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -536,8 +587,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -547,17 +601,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13639999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED22-4317-8A02-3EC852A9D566}"/>
+              <c16:uniqueId val="{00000001-CF33-4DB7-8784-D8843B4C854A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -594,8 +651,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -605,17 +665,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14549999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ED22-4317-8A02-3EC852A9D566}"/>
+              <c16:uniqueId val="{00000002-CF33-4DB7-8784-D8843B4C854A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -730,7 +793,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ED22-4317-8A02-3EC852A9D566}"/>
+                  <c16:uniqueId val="{00000003-CF33-4DB7-8784-D8843B4C854A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -808,8 +871,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -819,10 +885,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13689999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,7 +899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ED22-4317-8A02-3EC852A9D566}"/>
+              <c16:uniqueId val="{00000004-CF33-4DB7-8784-D8843B4C854A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,7 +999,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0%;\-0.0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1113,8 +1182,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1124,17 +1196,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FDF-4633-9EDD-008A316EB95B}"/>
+              <c16:uniqueId val="{00000000-AC8E-414B-8D52-166C1CA06897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1171,8 +1246,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1182,17 +1260,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1FDF-4633-9EDD-008A316EB95B}"/>
+              <c16:uniqueId val="{00000001-AC8E-414B-8D52-166C1CA06897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1229,8 +1310,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1240,17 +1324,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16669999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1FDF-4633-9EDD-008A316EB95B}"/>
+              <c16:uniqueId val="{00000002-AC8E-414B-8D52-166C1CA06897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,7 +1452,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1FDF-4633-9EDD-008A316EB95B}"/>
+                  <c16:uniqueId val="{00000003-AC8E-414B-8D52-166C1CA06897}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1443,8 +1530,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1454,10 +1544,13 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.31580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31580000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1FDF-4633-9EDD-008A316EB95B}"/>
+              <c16:uniqueId val="{00000004-AC8E-414B-8D52-166C1CA06897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1565,7 +1658,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1748,8 +1841,17 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1759,17 +1861,26 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>34945</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0;\-#,###;0">
+                  <c:v>34945.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F61D-4EFA-9E2C-0183DA78E6E5}"/>
+              <c16:uniqueId val="{00000000-8C25-4CC0-8095-DC843E95A71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1806,8 +1917,17 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1817,17 +1937,26 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>37164.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0;\-#,###;0">
+                  <c:v>37164.959999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F61D-4EFA-9E2C-0183DA78E6E5}"/>
+              <c16:uniqueId val="{00000001-8C25-4CC0-8095-DC843E95A71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1864,8 +1993,17 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1875,17 +2013,26 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>32121.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0;\-#,###;0">
+                  <c:v>32121.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F61D-4EFA-9E2C-0183DA78E6E5}"/>
+              <c16:uniqueId val="{00000002-8C25-4CC0-8095-DC843E95A71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2000,7 +2147,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F61D-4EFA-9E2C-0183DA78E6E5}"/>
+                  <c16:uniqueId val="{00000003-8C25-4CC0-8095-DC843E95A71D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2078,8 +2225,17 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2089,10 +2245,19 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34581.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34581.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,7 +2265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F61D-4EFA-9E2C-0183DA78E6E5}"/>
+              <c16:uniqueId val="{00000004-8C25-4CC0-8095-DC843E95A71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2200,7 +2365,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2383,8 +2548,17 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2394,17 +2568,26 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55DE-42E7-A7E2-08FB07C9EA94}"/>
+              <c16:uniqueId val="{00000000-C965-4B7C-80E8-285088533138}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2441,8 +2624,17 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2452,17 +2644,26 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3899999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-55DE-42E7-A7E2-08FB07C9EA94}"/>
+              <c16:uniqueId val="{00000001-C965-4B7C-80E8-285088533138}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2499,8 +2700,17 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2510,17 +2720,26 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-55DE-42E7-A7E2-08FB07C9EA94}"/>
+              <c16:uniqueId val="{00000002-C965-4B7C-80E8-285088533138}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2635,7 +2854,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-55DE-42E7-A7E2-08FB07C9EA94}"/>
+                  <c16:uniqueId val="{00000003-C965-4B7C-80E8-285088533138}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2713,8 +2932,17 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>法碩在</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2724,10 +2952,19 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,7 +2972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-55DE-42E7-A7E2-08FB07C9EA94}"/>
+              <c16:uniqueId val="{00000004-C965-4B7C-80E8-285088533138}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2835,7 +3072,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3018,8 +3255,14 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3029,17 +3272,23 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-867B-4B9A-A5EA-238BFACAC6E9}"/>
+              <c16:uniqueId val="{00000000-52BE-4971-8B57-F49FF961B94A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3076,8 +3325,14 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3087,17 +3342,23 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-867B-4B9A-A5EA-238BFACAC6E9}"/>
+              <c16:uniqueId val="{00000001-52BE-4971-8B57-F49FF961B94A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3134,8 +3395,14 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3145,17 +3412,23 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-867B-4B9A-A5EA-238BFACAC6E9}"/>
+              <c16:uniqueId val="{00000002-52BE-4971-8B57-F49FF961B94A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3270,7 +3543,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-867B-4B9A-A5EA-238BFACAC6E9}"/>
+                  <c16:uniqueId val="{00000003-52BE-4971-8B57-F49FF961B94A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3348,8 +3621,14 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>法律系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>法科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3359,10 +3638,16 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,7 +3655,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-867B-4B9A-A5EA-238BFACAC6E9}"/>
+              <c16:uniqueId val="{00000004-52BE-4971-8B57-F49FF961B94A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3470,7 +3755,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3664,7 +3949,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3674,7 +3959,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CE7-431C-B510-9884C208BF3F}"/>
+              <c16:uniqueId val="{00000000-A0C3-4F8F-B7A5-CF559BFCF093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3722,7 +4007,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3732,7 +4017,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CE7-431C-B510-9884C208BF3F}"/>
+              <c16:uniqueId val="{00000001-A0C3-4F8F-B7A5-CF559BFCF093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,7 +4065,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3790,7 +4075,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8CE7-431C-B510-9884C208BF3F}"/>
+              <c16:uniqueId val="{00000002-A0C3-4F8F-B7A5-CF559BFCF093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3905,7 +4190,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8CE7-431C-B510-9884C208BF3F}"/>
+                  <c16:uniqueId val="{00000003-A0C3-4F8F-B7A5-CF559BFCF093}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3994,7 +4279,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4005,7 +4290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8CE7-431C-B510-9884C208BF3F}"/>
+              <c16:uniqueId val="{00000004-A0C3-4F8F-B7A5-CF559BFCF093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4105,7 +4390,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4299,7 +4584,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4309,7 +4594,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF32-44C2-B77F-3C316F68AAFA}"/>
+              <c16:uniqueId val="{00000000-1EA6-4943-BCC3-0F0DE3AB073F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4357,7 +4642,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4367,7 +4652,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF32-44C2-B77F-3C316F68AAFA}"/>
+              <c16:uniqueId val="{00000001-1EA6-4943-BCC3-0F0DE3AB073F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4415,7 +4700,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4425,7 +4710,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF32-44C2-B77F-3C316F68AAFA}"/>
+              <c16:uniqueId val="{00000002-1EA6-4943-BCC3-0F0DE3AB073F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4540,7 +4825,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CF32-44C2-B77F-3C316F68AAFA}"/>
+                  <c16:uniqueId val="{00000003-1EA6-4943-BCC3-0F0DE3AB073F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4629,7 +4914,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4640,7 +4925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF32-44C2-B77F-3C316F68AAFA}"/>
+              <c16:uniqueId val="{00000004-1EA6-4943-BCC3-0F0DE3AB073F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4740,7 +5025,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4869,7 +5154,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69380254-DA4B-4454-8B9D-6E31D972310E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D584FB12-EEDB-43AD-A5CE-5909678C9807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4902,7 +5187,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE89076-7ECE-4700-85D2-53A7AABA3C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D7E18A-A7F5-4806-9A84-AAE0E340B32C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +5220,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB301F6-9D86-423D-9872-3F95E3E56D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1758B91-717B-44A4-85AB-A91717D9F8BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4968,7 +5253,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E1DF60-4E9E-4202-9510-7B6B68274A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A34D6CE-E502-45B9-8938-EA0670EC9F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5001,7 +5286,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847933D4-9D76-41CF-9612-F2A0F1502E58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1623AAB-BD3A-4A0C-AD5A-AFD9FC1CAED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5034,7 +5319,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83925383-2CCF-4F03-95B6-7E1AA17242BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB89677-A507-4689-85AE-085FD7E184C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5352,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FDA6C7-3162-44B0-8041-F15708410184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3105032-8C05-4595-8E44-C5CED639A4B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5679,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2666AE22-E1D2-4FDD-8F09-4E44054C3B25}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E14A41C3-538F-411C-B80A-569891F9EABC}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5406,9 +5691,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7DB5B-8C9B-45B0-BDB2-843814937522}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCF4E49-EEC2-477F-BB89-9E059D036C47}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5422,252 +5707,366 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FD67FDB1-2008-4FA8-802F-3FAF678EBA49}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{237C2DC9-6416-4726-83D1-BDD87F919E40}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E753860C-02BB-4231-8BE2-1BFD228FC336}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{FA970C90-91A0-4986-B85E-F4BB3707D5F7}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{145A158E-FB3D-4A2B-BB72-96454A2CAE8E}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{634E34FB-6BD8-4C8B-AA17-164D6E240703}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{16477250-EDCE-43C9-B6A1-6C107F2256BA}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5DFB0E85-9CCD-4262-AFEF-EC6A7B320CEA}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{0F6ECCEF-642C-4F15-A6DA-EDF6DEAD2D27}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{8FBB13E3-E0A5-4C96-B078-6ECCDCA37048}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{C16BC58A-24CB-472B-BD2C-D7FA566B81A2}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AB14C217-7A74-4014-A406-E61EDF212053}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{4E795C91-D198-495B-AC06-A9F1FFD9083B}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{8B7BBC12-3E57-4FF1-B5B1-383565B2ED8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D112424B-06E8-4047-A49D-CB35CBDE3367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E93191-C0AF-4155-BD6E-BBBC5A85B64F}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.12970000000000001</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5678,154 +6077,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE7564B-70B3-4226-9B60-D634A97AA471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C948EB-9E58-4BF6-8D94-42097BA0F3B9}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.6</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5836,154 +6236,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA87730-E1C2-4AB1-BE6A-712FED8B7A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8228CCE-FA87-454A-9809-803BE4E99057}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>34581.32</v>
+      </c>
+      <c r="D2" s="11">
+        <v>32121.39</v>
+      </c>
+      <c r="E2" s="11">
+        <v>37164.959999999999</v>
+      </c>
+      <c r="F2" s="11">
+        <v>34945</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11">
+        <v>34581.32</v>
+      </c>
+      <c r="D5" s="11">
+        <v>32121.39</v>
+      </c>
+      <c r="E5" s="11">
+        <v>37164.959999999999</v>
+      </c>
+      <c r="F5" s="11">
+        <v>34945.24</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5994,154 +6394,154 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A9ACE-121F-4C9E-993F-7FC46A980D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D82CA4F-51AA-45F3-9ADF-A6F4805CCA2B}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3.91</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3.95</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.88</v>
+      </c>
+      <c r="F2" s="15">
+        <v>3.9</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4.55</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E3" s="15">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F3" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5.31</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.42</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4.88</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.54</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6152,154 +6552,154 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4314C0E5-57B7-48FC-825B-170C9D527279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D468A626-5D2E-40E4-B6DC-1CC52756EB78}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>11.38</v>
+      </c>
+      <c r="D2" s="15">
+        <v>11.33</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10.99</v>
+      </c>
+      <c r="F2" s="15">
+        <v>11.81</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9.83</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8.93</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9.65</v>
+      </c>
+      <c r="F3" s="15">
+        <v>11.02</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10.34</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="F4" s="15">
+        <v>11.54</v>
+      </c>
+      <c r="G4" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6310,68 +6710,68 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C938073-E63F-44A3-8526-1B021232A88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA600397-0F0B-4862-BBCD-EC6FB129C359}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -6379,82 +6779,82 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -6468,68 +6868,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88788C-FEC1-44C5-9D8C-2222B9E06266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5610CCDC-2D51-46B4-8E85-1B78DFA20BE7}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -6537,82 +6937,82 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+      <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2F9AF-8434-4E30-A175-D465A35411CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3833BAC-07FB-49D0-805C-9E9A79A5DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{971A42F4-8656-4DC4-A258-5915C536D6B9}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{971A42F4-8656-4DC4-A258-5915C536D6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
@@ -164,38 +164,31 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為13.69%，低於（或等於）院三年均值者計有1個系，為法律系13.69%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為31.58%，高於（或等於）院三年均值者計有1個系，為法律系31.58%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為34,581，高於（或等於）院三年均值者計有1個系，為法律系34,581。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為4.54，低於院三年均值者計有1個系，為法律系3.91。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為10.8，高於院三年均值者計有1個系，為法律系11.38。</t>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為10.8，高於院三年均值者計有1個系，為法律系11.38。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -204,10 +197,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
@@ -426,9 +419,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +543,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF33-4DB7-8784-D8843B4C854A}"/>
+              <c16:uniqueId val="{00000000-B884-414A-AEDC-5491633038D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,7 +607,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF33-4DB7-8784-D8843B4C854A}"/>
+              <c16:uniqueId val="{00000001-B884-414A-AEDC-5491633038D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -678,7 +671,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF33-4DB7-8784-D8843B4C854A}"/>
+              <c16:uniqueId val="{00000002-B884-414A-AEDC-5491633038D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,7 +729,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -791,9 +784,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CF33-4DB7-8784-D8843B4C854A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -899,7 +889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF33-4DB7-8784-D8843B4C854A}"/>
+              <c16:uniqueId val="{00000004-B884-414A-AEDC-5491633038D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,7 +989,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%;\-0.0%;0" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1209,7 +1199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC8E-414B-8D52-166C1CA06897}"/>
+              <c16:uniqueId val="{00000000-3255-4BB0-8370-505E9071D38C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1273,7 +1263,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC8E-414B-8D52-166C1CA06897}"/>
+              <c16:uniqueId val="{00000001-3255-4BB0-8370-505E9071D38C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,7 +1327,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC8E-414B-8D52-166C1CA06897}"/>
+              <c16:uniqueId val="{00000002-3255-4BB0-8370-505E9071D38C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1395,7 +1385,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1450,9 +1440,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AC8E-414B-8D52-166C1CA06897}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1558,7 +1545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AC8E-414B-8D52-166C1CA06897}"/>
+              <c16:uniqueId val="{00000004-3255-4BB0-8370-505E9071D38C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1880,7 +1867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C25-4CC0-8095-DC843E95A71D}"/>
+              <c16:uniqueId val="{00000000-C61D-4588-A3FA-7206466694ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C25-4CC0-8095-DC843E95A71D}"/>
+              <c16:uniqueId val="{00000001-C61D-4588-A3FA-7206466694ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2032,7 +2019,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8C25-4CC0-8095-DC843E95A71D}"/>
+              <c16:uniqueId val="{00000002-C61D-4588-A3FA-7206466694ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2090,7 +2077,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2145,9 +2132,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8C25-4CC0-8095-DC843E95A71D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2265,7 +2249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8C25-4CC0-8095-DC843E95A71D}"/>
+              <c16:uniqueId val="{00000004-C61D-4588-A3FA-7206466694ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2587,7 +2571,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C965-4B7C-80E8-285088533138}"/>
+              <c16:uniqueId val="{00000000-D7F6-47FD-92B2-36C9CB94F899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2663,7 +2647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C965-4B7C-80E8-285088533138}"/>
+              <c16:uniqueId val="{00000001-D7F6-47FD-92B2-36C9CB94F899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2739,7 +2723,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C965-4B7C-80E8-285088533138}"/>
+              <c16:uniqueId val="{00000002-D7F6-47FD-92B2-36C9CB94F899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2797,7 +2781,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2852,9 +2836,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C965-4B7C-80E8-285088533138}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2972,7 +2953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C965-4B7C-80E8-285088533138}"/>
+              <c16:uniqueId val="{00000004-D7F6-47FD-92B2-36C9CB94F899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3288,7 +3269,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52BE-4971-8B57-F49FF961B94A}"/>
+              <c16:uniqueId val="{00000000-E04A-4B29-8C28-A92C80C850A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3358,7 +3339,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52BE-4971-8B57-F49FF961B94A}"/>
+              <c16:uniqueId val="{00000001-E04A-4B29-8C28-A92C80C850A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3428,7 +3409,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52BE-4971-8B57-F49FF961B94A}"/>
+              <c16:uniqueId val="{00000002-E04A-4B29-8C28-A92C80C850A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3486,7 +3467,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3541,9 +3522,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-52BE-4971-8B57-F49FF961B94A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3655,7 +3633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52BE-4971-8B57-F49FF961B94A}"/>
+              <c16:uniqueId val="{00000004-E04A-4B29-8C28-A92C80C850A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3959,7 +3937,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0C3-4F8F-B7A5-CF559BFCF093}"/>
+              <c16:uniqueId val="{00000000-8751-4318-8DB1-2C358E69FFAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4017,7 +3995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0C3-4F8F-B7A5-CF559BFCF093}"/>
+              <c16:uniqueId val="{00000001-8751-4318-8DB1-2C358E69FFAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4075,7 +4053,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A0C3-4F8F-B7A5-CF559BFCF093}"/>
+              <c16:uniqueId val="{00000002-8751-4318-8DB1-2C358E69FFAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4190,7 +4168,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A0C3-4F8F-B7A5-CF559BFCF093}"/>
+                  <c16:uniqueId val="{00000003-8751-4318-8DB1-2C358E69FFAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4290,7 +4268,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A0C3-4F8F-B7A5-CF559BFCF093}"/>
+              <c16:uniqueId val="{00000004-8751-4318-8DB1-2C358E69FFAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4594,7 +4572,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EA6-4943-BCC3-0F0DE3AB073F}"/>
+              <c16:uniqueId val="{00000000-159E-4422-86F1-C0C538AE898F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4652,7 +4630,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EA6-4943-BCC3-0F0DE3AB073F}"/>
+              <c16:uniqueId val="{00000001-159E-4422-86F1-C0C538AE898F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4710,7 +4688,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1EA6-4943-BCC3-0F0DE3AB073F}"/>
+              <c16:uniqueId val="{00000002-159E-4422-86F1-C0C538AE898F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4825,7 +4803,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1EA6-4943-BCC3-0F0DE3AB073F}"/>
+                  <c16:uniqueId val="{00000003-159E-4422-86F1-C0C538AE898F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4925,7 +4903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1EA6-4943-BCC3-0F0DE3AB073F}"/>
+              <c16:uniqueId val="{00000004-159E-4422-86F1-C0C538AE898F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5154,7 +5132,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D584FB12-EEDB-43AD-A5CE-5909678C9807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8976A75-F637-47C5-A6C1-F7215DC6CCBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5165,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D7E18A-A7F5-4806-9A84-AAE0E340B32C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F263B6-D9B1-47EF-AA5D-E8381367A2BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5198,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1758B91-717B-44A4-85AB-A91717D9F8BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C401C-6257-4032-8432-90E5503901CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,7 +5231,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A34D6CE-E502-45B9-8938-EA0670EC9F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2BC890-0E31-4DA7-A0A0-99B22FCE4DB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,7 +5264,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1623AAB-BD3A-4A0C-AD5A-AFD9FC1CAED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF0A5B7-7436-4D17-8B6E-8CE9A127DD88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5297,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB89677-A507-4689-85AE-085FD7E184C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5BE6E8-0741-47B6-8785-F1B3F8A17058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5352,7 +5330,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3105032-8C05-4595-8E44-C5CED639A4B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280C0E1C-96C0-4E74-ABF9-0F75EC7A6FA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5740,13 +5718,13 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5757,13 +5735,13 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5774,13 +5752,13 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
     </row>
@@ -5791,13 +5769,13 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>3</v>
       </c>
     </row>
@@ -5806,15 +5784,15 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="12">
+        <v>34</v>
+      </c>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>2.5</v>
       </c>
     </row>
@@ -5825,13 +5803,13 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5842,13 +5820,13 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5857,15 +5835,15 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="12">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>2.5</v>
       </c>
     </row>
@@ -5876,13 +5854,13 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5893,33 +5871,33 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="15">
         <v>2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="15">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5DFB0E85-9CCD-4262-AFEF-EC6A7B320CEA}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{0F6ECCEF-642C-4F15-A6DA-EDF6DEAD2D27}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{8FBB13E3-E0A5-4C96-B078-6ECCDCA37048}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{C16BC58A-24CB-472B-BD2C-D7FA566B81A2}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AB14C217-7A74-4014-A406-E61EDF212053}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{4E795C91-D198-495B-AC06-A9F1FFD9083B}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{8B7BBC12-3E57-4FF1-B5B1-383565B2ED8E}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{E5D748AB-830C-40F1-BE51-A1E7DFB18511}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{77D1EE95-223C-4AAE-B16B-8BEE6E287FA2}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0A2A824C-BF7D-4796-A207-56853405A350}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{F8930F32-BBD1-499E-B889-76A7A766E5FC}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{DC7AE069-996B-475D-B717-9C492D4178C4}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{82A349D2-C8AE-4D73-A268-717B514AF6F1}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{31186C3E-0CB8-4094-92D1-EAD06E6E1783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E93191-C0AF-4155-BD6E-BBBC5A85B64F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF10D55-E04D-4212-A56F-F8ECE78E1710}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -5970,16 +5948,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.13689999999999999</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.14549999999999999</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.13639999999999999</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.12970000000000001</v>
       </c>
       <c r="G2" s="9">
@@ -5993,16 +5971,16 @@
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.13689999999999999</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.14549999999999999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.13639999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.12970000000000001</v>
       </c>
       <c r="G3" s="9">
@@ -6016,16 +5994,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6039,16 +6017,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6066,7 +6044,7 @@
       <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6077,7 +6055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C948EB-9E58-4BF6-8D94-42097BA0F3B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E246325-3DB1-4056-A4FF-34209E02DAA6}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6089,8 +6067,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6129,16 +6106,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.31580000000000003</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.25</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>0.6</v>
       </c>
       <c r="G2" s="9">
@@ -6152,16 +6129,16 @@
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.31580000000000003</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.25</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.6</v>
       </c>
       <c r="G3" s="9">
@@ -6175,16 +6152,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6198,16 +6175,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6225,7 +6202,7 @@
       <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6236,7 +6213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8228CCE-FA87-454A-9809-803BE4E99057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D73C4EB-CA20-4AFF-A3F1-A71696983C04}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6248,7 +6225,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6287,16 +6264,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>34581.32</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>32121.39</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>37164.959999999999</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>34945</v>
       </c>
       <c r="G2" s="9">
@@ -6310,16 +6287,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="9">
@@ -6333,16 +6310,16 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="9">
@@ -6356,16 +6333,16 @@
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>34581.32</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>32121.39</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>37164.959999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>34945.24</v>
       </c>
       <c r="G5" s="9">
@@ -6394,7 +6371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D82CA4F-51AA-45F3-9ADF-A6F4805CCA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9757BB-80B3-4F43-89EA-905EEA312281}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6406,7 +6383,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6445,16 +6422,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3.91</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>3.95</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3.88</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>3.9</v>
       </c>
       <c r="G2" s="9">
@@ -6468,16 +6445,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>4.55</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>4.3</v>
       </c>
       <c r="G3" s="9">
@@ -6491,16 +6468,16 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>5.31</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>5.42</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>4.88</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>5.6</v>
       </c>
       <c r="G4" s="9">
@@ -6514,16 +6491,16 @@
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>4.54</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>4.49</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>4.74</v>
       </c>
       <c r="G5" s="9">
@@ -6552,7 +6529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D468A626-5D2E-40E4-B6DC-1CC52756EB78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BED9A17-DABF-42AD-9160-BCC75FE5FF9B}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6564,7 +6541,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6593,7 +6571,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6603,16 +6581,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>11.38</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>11.33</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>10.99</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>11.81</v>
       </c>
       <c r="G2" s="9">
@@ -6626,16 +6604,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>9.83</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>8.93</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>9.65</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>11.02</v>
       </c>
       <c r="G3" s="9">
@@ -6649,16 +6627,16 @@
       <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>10.8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>10.34</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>10.5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>11.54</v>
       </c>
       <c r="G4" s="9">
@@ -6672,16 +6650,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6699,7 +6677,7 @@
       <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6710,7 +6688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA600397-0F0B-4862-BBCD-EC6FB129C359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7D0C30-D45E-494C-8444-9EC3473B6D30}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6722,7 +6700,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6751,7 +6729,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6761,16 +6739,16 @@
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -6784,16 +6762,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -6807,16 +6785,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6830,16 +6808,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6857,7 +6835,7 @@
       <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6868,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5610CCDC-2D51-46B4-8E85-1B78DFA20BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62942A0B-30AD-45D5-9397-DC5F87DA2236}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6909,7 +6887,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6919,16 +6897,16 @@
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="9">
@@ -6942,16 +6920,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -6965,16 +6943,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6988,16 +6966,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -7015,7 +6993,7 @@
       <sortCondition ref="G1:G5"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/法學院.xlsx
+++ b/test/1. 各院彙整資料/法學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3833BAC-07FB-49D0-805C-9E9A79A5DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF17C44-1F0E-483D-A3A1-521AD5727B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{971A42F4-8656-4DC4-A258-5915C536D6B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{971A42F4-8656-4DC4-A258-5915C536D6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
@@ -543,7 +543,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B884-414A-AEDC-5491633038D6}"/>
+              <c16:uniqueId val="{00000000-6DA9-4A7D-A21D-B1CB21FFEECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -607,7 +607,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B884-414A-AEDC-5491633038D6}"/>
+              <c16:uniqueId val="{00000001-6DA9-4A7D-A21D-B1CB21FFEECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -671,7 +671,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B884-414A-AEDC-5491633038D6}"/>
+              <c16:uniqueId val="{00000002-6DA9-4A7D-A21D-B1CB21FFEECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,7 +889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B884-414A-AEDC-5491633038D6}"/>
+              <c16:uniqueId val="{00000004-6DA9-4A7D-A21D-B1CB21FFEECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,7 +1199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3255-4BB0-8370-505E9071D38C}"/>
+              <c16:uniqueId val="{00000000-FB93-43BD-ADB6-BCB946E0D6C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1263,7 +1263,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3255-4BB0-8370-505E9071D38C}"/>
+              <c16:uniqueId val="{00000001-FB93-43BD-ADB6-BCB946E0D6C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1327,7 +1327,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3255-4BB0-8370-505E9071D38C}"/>
+              <c16:uniqueId val="{00000002-FB93-43BD-ADB6-BCB946E0D6C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1545,7 +1545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3255-4BB0-8370-505E9071D38C}"/>
+              <c16:uniqueId val="{00000004-FB93-43BD-ADB6-BCB946E0D6C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1867,7 +1867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C61D-4588-A3FA-7206466694ED}"/>
+              <c16:uniqueId val="{00000000-CB68-40F9-9150-704E4959BB41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C61D-4588-A3FA-7206466694ED}"/>
+              <c16:uniqueId val="{00000001-CB68-40F9-9150-704E4959BB41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2019,7 +2019,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C61D-4588-A3FA-7206466694ED}"/>
+              <c16:uniqueId val="{00000002-CB68-40F9-9150-704E4959BB41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2249,7 +2249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C61D-4588-A3FA-7206466694ED}"/>
+              <c16:uniqueId val="{00000004-CB68-40F9-9150-704E4959BB41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2571,7 +2571,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7F6-47FD-92B2-36C9CB94F899}"/>
+              <c16:uniqueId val="{00000000-5A6F-4997-B2EA-C8D0327D4276}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,7 +2647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7F6-47FD-92B2-36C9CB94F899}"/>
+              <c16:uniqueId val="{00000001-5A6F-4997-B2EA-C8D0327D4276}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2723,7 +2723,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7F6-47FD-92B2-36C9CB94F899}"/>
+              <c16:uniqueId val="{00000002-5A6F-4997-B2EA-C8D0327D4276}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2953,7 +2953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D7F6-47FD-92B2-36C9CB94F899}"/>
+              <c16:uniqueId val="{00000004-5A6F-4997-B2EA-C8D0327D4276}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3269,7 +3269,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E04A-4B29-8C28-A92C80C850A2}"/>
+              <c16:uniqueId val="{00000000-5B80-45D6-BF28-8F1640F82875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3339,7 +3339,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E04A-4B29-8C28-A92C80C850A2}"/>
+              <c16:uniqueId val="{00000001-5B80-45D6-BF28-8F1640F82875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,7 +3409,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E04A-4B29-8C28-A92C80C850A2}"/>
+              <c16:uniqueId val="{00000002-5B80-45D6-BF28-8F1640F82875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3633,7 +3633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E04A-4B29-8C28-A92C80C850A2}"/>
+              <c16:uniqueId val="{00000004-5B80-45D6-BF28-8F1640F82875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3937,7 +3937,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8751-4318-8DB1-2C358E69FFAC}"/>
+              <c16:uniqueId val="{00000000-6D35-4DA4-B9C7-414EFE47960D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3995,7 +3995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8751-4318-8DB1-2C358E69FFAC}"/>
+              <c16:uniqueId val="{00000001-6D35-4DA4-B9C7-414EFE47960D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4053,7 +4053,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8751-4318-8DB1-2C358E69FFAC}"/>
+              <c16:uniqueId val="{00000002-6D35-4DA4-B9C7-414EFE47960D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4168,7 +4168,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8751-4318-8DB1-2C358E69FFAC}"/>
+                  <c16:uniqueId val="{00000003-6D35-4DA4-B9C7-414EFE47960D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4268,7 +4268,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8751-4318-8DB1-2C358E69FFAC}"/>
+              <c16:uniqueId val="{00000004-6D35-4DA4-B9C7-414EFE47960D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4572,7 +4572,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-159E-4422-86F1-C0C538AE898F}"/>
+              <c16:uniqueId val="{00000000-6797-4A5F-9757-56AC5B59E0F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4630,7 +4630,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-159E-4422-86F1-C0C538AE898F}"/>
+              <c16:uniqueId val="{00000001-6797-4A5F-9757-56AC5B59E0F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4688,7 +4688,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-159E-4422-86F1-C0C538AE898F}"/>
+              <c16:uniqueId val="{00000002-6797-4A5F-9757-56AC5B59E0F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4803,7 +4803,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-159E-4422-86F1-C0C538AE898F}"/>
+                  <c16:uniqueId val="{00000003-6797-4A5F-9757-56AC5B59E0F3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4903,7 +4903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-159E-4422-86F1-C0C538AE898F}"/>
+              <c16:uniqueId val="{00000004-6797-4A5F-9757-56AC5B59E0F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5132,7 +5132,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8976A75-F637-47C5-A6C1-F7215DC6CCBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80523B89-D0BF-44DF-B89C-7C04A35BBC8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5165,7 +5165,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F263B6-D9B1-47EF-AA5D-E8381367A2BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E755BE-2D0F-42F6-AE19-7F722853B0CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,7 +5198,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C401C-6257-4032-8432-90E5503901CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D3A3EA-3142-4F49-B3E9-1A6467B67C1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5231,7 +5231,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2BC890-0E31-4DA7-A0A0-99B22FCE4DB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080F0BE3-B62D-453D-AAF1-6122F661550F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5264,7 +5264,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF0A5B7-7436-4D17-8B6E-8CE9A127DD88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8B31C6-25FA-46B1-85F2-1AC282DA70AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5BE6E8-0741-47B6-8785-F1B3F8A17058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3B73D6-4D3B-4A80-8198-C8B1D16D9D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5330,7 +5330,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280C0E1C-96C0-4E74-ABF9-0F75EC7A6FA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F87D7CD-B4B0-4F58-BE39-D40AF4912FCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,22 +5884,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{E5D748AB-830C-40F1-BE51-A1E7DFB18511}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{77D1EE95-223C-4AAE-B16B-8BEE6E287FA2}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0A2A824C-BF7D-4796-A207-56853405A350}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{F8930F32-BBD1-499E-B889-76A7A766E5FC}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{DC7AE069-996B-475D-B717-9C492D4178C4}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{82A349D2-C8AE-4D73-A268-717B514AF6F1}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{31186C3E-0CB8-4094-92D1-EAD06E6E1783}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{C37641BF-9120-4FAB-9114-A461C28BC913}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{14B62768-EE96-4CC1-AA26-152C8313E161}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{67060DD8-ACD0-4947-A73C-D760ABA06E92}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{AFF321F7-3647-4D10-9ECD-4D5E1683E002}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AFD54B91-6D16-4D70-B1CE-479A8ACC59DE}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{F63A4B1E-9AE6-47D3-AD8E-0B14CCCA116B}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{9CF6DF88-48DA-4210-9800-5E199810796E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF10D55-E04D-4212-A56F-F8ECE78E1710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420F5012-AF46-443D-BDB6-1D4837FFCEBF}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -5915,7 +5915,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -5937,11 +5937,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6055,9 +6055,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E246325-3DB1-4056-A4FF-34209E02DAA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D97FAA7-7164-4C5E-93D9-552641B9DC06}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6073,7 +6073,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6095,11 +6095,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6213,9 +6213,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D73C4EB-CA20-4AFF-A3F1-A71696983C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3D77D-1258-417E-BC5D-667C23632CF1}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6231,7 +6231,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6253,11 +6253,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -6371,9 +6371,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9757BB-80B3-4F43-89EA-905EEA312281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51196912-E063-4159-8100-634187795E2D}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6389,7 +6389,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6411,11 +6411,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -6529,9 +6529,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BED9A17-DABF-42AD-9160-BCC75FE5FF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128DC2D-307B-4B8B-A40D-D55077888DBE}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6548,7 +6548,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6570,11 +6570,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6688,9 +6688,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7D0C30-D45E-494C-8444-9EC3473B6D30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55906B88-6B61-4068-8B48-D176E40476FE}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6706,7 +6706,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6728,11 +6728,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6846,9 +6846,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62942A0B-30AD-45D5-9397-DC5F87DA2236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B940B077-23CD-4D14-BDF1-9B7C2C646778}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6864,7 +6864,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6886,11 +6886,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
